--- a/Team Afya.xlsx
+++ b/Team Afya.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F4F5014-2CE1-4D86-83F0-15237A2F7E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\randa\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98216230-524D-4613-A5DA-3C9EEF73A9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Randa Hamdi AbdelAzeem</t>
   </si>
@@ -51,9 +56,6 @@
     <t>Mona Ashraf</t>
   </si>
   <si>
-    <t>Cometitoers analysis, user interview</t>
-  </si>
-  <si>
     <t>Abdallah Gamal</t>
   </si>
   <si>
@@ -63,18 +65,42 @@
     <t>Mostafa Mahdy</t>
   </si>
   <si>
-    <t>Aya Mohamed</t>
+    <t>User journey map</t>
+  </si>
+  <si>
+    <t>Affinity map</t>
+  </si>
+  <si>
+    <t>Persona , Affinity map</t>
+  </si>
+  <si>
+    <t>Site map</t>
+  </si>
+  <si>
+    <t>User journey map, Site map</t>
+  </si>
+  <si>
+    <t>Site map,user flow</t>
+  </si>
+  <si>
+    <t>Wireframe</t>
+  </si>
+  <si>
+    <t>user interview,Competitor analysis</t>
+  </si>
+  <si>
+    <t>User flow,wireframe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -438,20 +464,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,42 +487,64 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>10</v>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
